--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -68,10 +68,10 @@
     <t>m_max</t>
   </si>
   <si>
-    <t>sig_eta_Z</t>
+    <t>sig_Z_eta</t>
   </si>
   <si>
-    <t>ixsec</t>
+    <t>normalization</t>
   </si>
 </sst>
 </file>
@@ -395,12 +395,13 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="11" width="10.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
     <col min="1023" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,7 +478,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -515,7 +516,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -553,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -591,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -629,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -667,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -705,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -743,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -781,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -819,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -857,7 +858,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -895,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -933,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -971,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1009,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1047,7 +1048,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1085,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1123,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1161,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1199,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1237,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1275,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1313,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1351,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1389,7 +1390,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1427,7 +1428,7 @@
         <v>14</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1465,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1503,7 +1504,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="1">
-        <v>1</v>
+        <v>256.60000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="1">
-        <v>0.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I26" s="1">
         <v>0.45</v>

--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -68,10 +68,10 @@
     <t>m_max</t>
   </si>
   <si>
-    <t>sig_Z_eta</t>
+    <t>normalization</t>
   </si>
   <si>
-    <t>normalization</t>
+    <t>Z_rap</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -475,7 +475,7 @@
         <v>0.49</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
         <v>256.60000000000002</v>
@@ -513,7 +513,7 @@
         <v>0.49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1">
         <v>256.60000000000002</v>
@@ -551,7 +551,7 @@
         <v>0.49</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1">
         <v>256.60000000000002</v>
@@ -589,7 +589,7 @@
         <v>0.48</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="1">
         <v>256.60000000000002</v>
@@ -627,7 +627,7 @@
         <v>0.47</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1">
         <v>256.60000000000002</v>
@@ -665,7 +665,7 @@
         <v>0.47</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" s="1">
         <v>256.60000000000002</v>
@@ -703,7 +703,7 @@
         <v>0.47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1">
         <v>256.60000000000002</v>
@@ -741,7 +741,7 @@
         <v>0.48</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" s="1">
         <v>256.60000000000002</v>
@@ -779,7 +779,7 @@
         <v>0.49</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L10" s="1">
         <v>256.60000000000002</v>
@@ -817,7 +817,7 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" s="1">
         <v>256.60000000000002</v>
@@ -855,7 +855,7 @@
         <v>0.5</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1">
         <v>256.60000000000002</v>
@@ -893,7 +893,7 @@
         <v>0.49</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" s="1">
         <v>256.60000000000002</v>
@@ -931,7 +931,7 @@
         <v>0.48</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L14" s="1">
         <v>256.60000000000002</v>
@@ -969,7 +969,7 @@
         <v>0.43</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" s="1">
         <v>256.60000000000002</v>
@@ -1007,7 +1007,7 @@
         <v>0.4</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L16" s="1">
         <v>256.60000000000002</v>
@@ -1045,7 +1045,7 @@
         <v>0.37</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L17" s="1">
         <v>256.60000000000002</v>
@@ -1083,7 +1083,7 @@
         <v>0.35</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L18" s="1">
         <v>256.60000000000002</v>
@@ -1121,7 +1121,7 @@
         <v>0.34</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L19" s="1">
         <v>256.60000000000002</v>
@@ -1159,7 +1159,7 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L20" s="1">
         <v>256.60000000000002</v>
@@ -1197,7 +1197,7 @@
         <v>0.31</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L21" s="1">
         <v>256.60000000000002</v>
@@ -1235,7 +1235,7 @@
         <v>0.25</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L22" s="1">
         <v>256.60000000000002</v>
@@ -1273,7 +1273,7 @@
         <v>0.23</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L23" s="1">
         <v>256.60000000000002</v>
@@ -1311,7 +1311,7 @@
         <v>0.2</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L24" s="1">
         <v>256.60000000000002</v>
@@ -1349,7 +1349,7 @@
         <v>0.17</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L25" s="1">
         <v>256.60000000000002</v>
@@ -1387,7 +1387,7 @@
         <v>0.1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L26" s="1">
         <v>256.60000000000002</v>
@@ -1425,7 +1425,7 @@
         <v>0.09</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L27" s="1">
         <v>256.60000000000002</v>
@@ -1463,7 +1463,7 @@
         <v>0.15</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L28" s="1">
         <v>256.60000000000002</v>
@@ -1501,7 +1501,7 @@
         <v>0.11</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L29" s="1">
         <v>256.60000000000002</v>

--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -50,9 +50,6 @@
     <t>target</t>
   </si>
   <si>
-    <t xml:space="preserve">CDF(Z) </t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Z_rap</t>
+  </si>
+  <si>
+    <t>CDF(Z)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -419,10 +419,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -431,21 +431,21 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -463,7 +463,7 @@
         <v>116</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1">
         <v>69.459999999999994</v>
@@ -475,7 +475,7 @@
         <v>0.49</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1">
         <v>256.60000000000002</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -501,7 +501,7 @@
         <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1">
         <v>71.03</v>
@@ -513,7 +513,7 @@
         <v>0.49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
         <v>256.60000000000002</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -539,7 +539,7 @@
         <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1">
         <v>71.099999999999994</v>
@@ -551,7 +551,7 @@
         <v>0.49</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1">
         <v>256.60000000000002</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -577,7 +577,7 @@
         <v>116</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1">
         <v>70.010000000000005</v>
@@ -589,7 +589,7 @@
         <v>0.48</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1">
         <v>256.60000000000002</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -615,7 +615,7 @@
         <v>116</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
         <v>67.97</v>
@@ -627,7 +627,7 @@
         <v>0.47</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1">
         <v>256.60000000000002</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -653,7 +653,7 @@
         <v>116</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
         <v>68.22</v>
@@ -665,7 +665,7 @@
         <v>0.47</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="1">
         <v>256.60000000000002</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -691,7 +691,7 @@
         <v>116</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1">
         <v>66.58</v>
@@ -703,7 +703,7 @@
         <v>0.47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="1">
         <v>256.60000000000002</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -729,7 +729,7 @@
         <v>116</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" s="1">
         <v>66.81</v>
@@ -741,7 +741,7 @@
         <v>0.48</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="1">
         <v>256.60000000000002</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -767,7 +767,7 @@
         <v>116</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1">
         <v>65.05</v>
@@ -779,7 +779,7 @@
         <v>0.49</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="1">
         <v>256.60000000000002</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -805,7 +805,7 @@
         <v>116</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1">
         <v>64.7</v>
@@ -817,7 +817,7 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="1">
         <v>256.60000000000002</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -843,7 +843,7 @@
         <v>116</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
         <v>62.74</v>
@@ -855,7 +855,7 @@
         <v>0.5</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="1">
         <v>256.60000000000002</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -881,7 +881,7 @@
         <v>116</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
         <v>62.02</v>
@@ -893,7 +893,7 @@
         <v>0.49</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="1">
         <v>256.60000000000002</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -919,7 +919,7 @@
         <v>116</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1">
         <v>58.8</v>
@@ -931,7 +931,7 @@
         <v>0.48</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="1">
         <v>256.60000000000002</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -957,7 +957,7 @@
         <v>116</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1">
         <v>56.02</v>
@@ -969,7 +969,7 @@
         <v>0.43</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="1">
         <v>256.60000000000002</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -995,7 +995,7 @@
         <v>116</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="1">
         <v>53.37</v>
@@ -1007,7 +1007,7 @@
         <v>0.4</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="1">
         <v>256.60000000000002</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -1033,7 +1033,7 @@
         <v>116</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1">
         <v>50.07</v>
@@ -1045,7 +1045,7 @@
         <v>0.37</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="1">
         <v>256.60000000000002</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
@@ -1071,7 +1071,7 @@
         <v>116</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="1">
         <v>46.59</v>
@@ -1083,7 +1083,7 @@
         <v>0.35</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" s="1">
         <v>256.60000000000002</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -1109,7 +1109,7 @@
         <v>116</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1">
         <v>40.97</v>
@@ -1121,7 +1121,7 @@
         <v>0.34</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" s="1">
         <v>256.60000000000002</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -1147,7 +1147,7 @@
         <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1">
         <v>37.04</v>
@@ -1159,7 +1159,7 @@
         <v>0.3</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" s="1">
         <v>256.60000000000002</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -1185,7 +1185,7 @@
         <v>116</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" s="1">
         <v>33.020000000000003</v>
@@ -1197,7 +1197,7 @@
         <v>0.31</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="1">
         <v>256.60000000000002</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -1223,7 +1223,7 @@
         <v>116</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" s="1">
         <v>27.65</v>
@@ -1235,7 +1235,7 @@
         <v>0.25</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1">
         <v>256.60000000000002</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
@@ -1261,7 +1261,7 @@
         <v>116</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="1">
         <v>21.84</v>
@@ -1273,7 +1273,7 @@
         <v>0.23</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" s="1">
         <v>256.60000000000002</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
@@ -1299,7 +1299,7 @@
         <v>116</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1">
         <v>18.350000000000001</v>
@@ -1311,7 +1311,7 @@
         <v>0.2</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" s="1">
         <v>256.60000000000002</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -1337,7 +1337,7 @@
         <v>116</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1">
         <v>14.13</v>
@@ -1349,7 +1349,7 @@
         <v>0.17</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="1">
         <v>256.60000000000002</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
@@ -1375,7 +1375,7 @@
         <v>116</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" s="1">
         <v>8.8000000000000007</v>
@@ -1387,7 +1387,7 @@
         <v>0.1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="1">
         <v>256.60000000000002</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
@@ -1413,7 +1413,7 @@
         <v>116</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1">
         <v>5.68</v>
@@ -1425,7 +1425,7 @@
         <v>0.09</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="1">
         <v>256.60000000000002</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
@@ -1451,7 +1451,7 @@
         <v>116</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
         <v>2.93</v>
@@ -1463,7 +1463,7 @@
         <v>0.15</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" s="1">
         <v>256.60000000000002</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
@@ -1489,7 +1489,7 @@
         <v>116</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
         <v>0.87</v>
@@ -1501,7 +1501,7 @@
         <v>0.11</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="1">
         <v>256.60000000000002</v>

--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
   <si>
     <t>cms</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>CDF(Z)</t>
+  </si>
+  <si>
+    <t>eta_min</t>
+  </si>
+  <si>
+    <t>eta_max</t>
   </si>
 </sst>
 </file>
@@ -392,20 +398,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="11" width="10.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="1023" max="1025" width="10.5" customWidth="1"/>
+    <col min="3" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="1025" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -416,34 +422,40 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -454,34 +466,40 @@
         <v>1960</v>
       </c>
       <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.05</v>
       </c>
-      <c r="E2" s="1">
-        <v>66</v>
-      </c>
-      <c r="F2" s="1">
-        <v>116</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="G2" s="1">
+        <v>66</v>
       </c>
       <c r="H2" s="1">
+        <v>116</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
         <v>69.459999999999994</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>0.73</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>0.49</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -492,34 +510,40 @@
         <v>1960</v>
       </c>
       <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.15</v>
       </c>
-      <c r="E3" s="1">
-        <v>66</v>
-      </c>
-      <c r="F3" s="1">
-        <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
+      <c r="G3" s="1">
+        <v>66</v>
       </c>
       <c r="H3" s="1">
+        <v>116</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
         <v>71.03</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>0.74</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>0.49</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -530,34 +554,40 @@
         <v>1960</v>
       </c>
       <c r="D4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.25</v>
       </c>
-      <c r="E4" s="1">
-        <v>66</v>
-      </c>
-      <c r="F4" s="1">
-        <v>116</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
+      <c r="G4" s="1">
+        <v>66</v>
       </c>
       <c r="H4" s="1">
+        <v>116</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
         <v>71.099999999999994</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>0.74</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>0.49</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -568,34 +598,40 @@
         <v>1960</v>
       </c>
       <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.35</v>
       </c>
-      <c r="E5" s="1">
-        <v>66</v>
-      </c>
-      <c r="F5" s="1">
-        <v>116</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
+      <c r="G5" s="1">
+        <v>66</v>
       </c>
       <c r="H5" s="1">
+        <v>116</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
         <v>70.010000000000005</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>0.72</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>0.48</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -606,34 +642,40 @@
         <v>1960</v>
       </c>
       <c r="D6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.45</v>
       </c>
-      <c r="E6" s="1">
-        <v>66</v>
-      </c>
-      <c r="F6" s="1">
-        <v>116</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
+      <c r="G6" s="1">
+        <v>66</v>
       </c>
       <c r="H6" s="1">
+        <v>116</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
         <v>67.97</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>0.7</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>0.47</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -644,34 +686,40 @@
         <v>1960</v>
       </c>
       <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E7" s="1">
-        <v>66</v>
-      </c>
-      <c r="F7" s="1">
-        <v>116</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
+      <c r="G7" s="1">
+        <v>66</v>
       </c>
       <c r="H7" s="1">
+        <v>116</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
         <v>68.22</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>0.7</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>0.47</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -682,34 +730,40 @@
         <v>1960</v>
       </c>
       <c r="D8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.65</v>
       </c>
-      <c r="E8" s="1">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1">
-        <v>116</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
+      <c r="G8" s="1">
+        <v>66</v>
       </c>
       <c r="H8" s="1">
+        <v>116</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
         <v>66.58</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>0.69</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>0.47</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -720,34 +774,40 @@
         <v>1960</v>
       </c>
       <c r="D9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.75</v>
       </c>
-      <c r="E9" s="1">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1">
-        <v>116</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
+      <c r="G9" s="1">
+        <v>66</v>
       </c>
       <c r="H9" s="1">
+        <v>116</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
         <v>66.81</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>0.7</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>0.48</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -758,34 +818,40 @@
         <v>1960</v>
       </c>
       <c r="D10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.85</v>
       </c>
-      <c r="E10" s="1">
-        <v>66</v>
-      </c>
-      <c r="F10" s="1">
-        <v>116</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
+      <c r="G10" s="1">
+        <v>66</v>
       </c>
       <c r="H10" s="1">
+        <v>116</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
         <v>65.05</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>0.69</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>0.49</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -796,34 +862,40 @@
         <v>1960</v>
       </c>
       <c r="D11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.95</v>
       </c>
-      <c r="E11" s="1">
-        <v>66</v>
-      </c>
-      <c r="F11" s="1">
-        <v>116</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
+      <c r="G11" s="1">
+        <v>66</v>
       </c>
       <c r="H11" s="1">
+        <v>116</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
         <v>64.7</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>0.69</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>0.5</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -834,34 +906,40 @@
         <v>1960</v>
       </c>
       <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12" s="1">
         <v>1.05</v>
       </c>
-      <c r="E12" s="1">
-        <v>66</v>
-      </c>
-      <c r="F12" s="1">
-        <v>116</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
+      <c r="G12" s="1">
+        <v>66</v>
       </c>
       <c r="H12" s="1">
+        <v>116</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
         <v>62.74</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>0.67</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>0.5</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -872,34 +950,40 @@
         <v>1960</v>
       </c>
       <c r="D13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F13" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E13" s="1">
-        <v>66</v>
-      </c>
-      <c r="F13" s="1">
-        <v>116</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
+      <c r="G13" s="1">
+        <v>66</v>
       </c>
       <c r="H13" s="1">
+        <v>116</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
         <v>62.02</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>0.66</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>0.49</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -910,34 +994,40 @@
         <v>1960</v>
       </c>
       <c r="D14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F14" s="1">
         <v>1.25</v>
       </c>
-      <c r="E14" s="1">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1">
-        <v>116</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
+      <c r="G14" s="1">
+        <v>66</v>
       </c>
       <c r="H14" s="1">
+        <v>116</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
         <v>58.8</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>0.65</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>0.48</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -948,34 +1038,40 @@
         <v>1960</v>
       </c>
       <c r="D15" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F15" s="1">
         <v>1.35</v>
       </c>
-      <c r="E15" s="1">
-        <v>66</v>
-      </c>
-      <c r="F15" s="1">
-        <v>116</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
+      <c r="G15" s="1">
+        <v>66</v>
       </c>
       <c r="H15" s="1">
+        <v>116</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1">
         <v>56.02</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>0.65</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>0.43</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -986,34 +1082,40 @@
         <v>1960</v>
       </c>
       <c r="D16" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="1">
         <v>1.45</v>
       </c>
-      <c r="E16" s="1">
-        <v>66</v>
-      </c>
-      <c r="F16" s="1">
-        <v>116</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
+      <c r="G16" s="1">
+        <v>66</v>
       </c>
       <c r="H16" s="1">
+        <v>116</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
         <v>53.37</v>
       </c>
-      <c r="I16" s="1">
+      <c r="K16" s="1">
         <v>0.63</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>0.4</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,34 +1126,40 @@
         <v>1960</v>
       </c>
       <c r="D17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F17" s="1">
         <v>1.55</v>
       </c>
-      <c r="E17" s="1">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1">
-        <v>116</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
+      <c r="G17" s="1">
+        <v>66</v>
       </c>
       <c r="H17" s="1">
+        <v>116</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1">
         <v>50.07</v>
       </c>
-      <c r="I17" s="1">
+      <c r="K17" s="1">
         <v>0.62</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>0.37</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1062,34 +1170,40 @@
         <v>1960</v>
       </c>
       <c r="D18" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F18" s="1">
         <v>1.65</v>
       </c>
-      <c r="E18" s="1">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1">
-        <v>116</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
+      <c r="G18" s="1">
+        <v>66</v>
       </c>
       <c r="H18" s="1">
+        <v>116</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1">
         <v>46.59</v>
       </c>
-      <c r="I18" s="1">
+      <c r="K18" s="1">
         <v>0.61</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1">
         <v>0.35</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1100,34 +1214,40 @@
         <v>1960</v>
       </c>
       <c r="D19" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F19" s="1">
         <v>1.75</v>
       </c>
-      <c r="E19" s="1">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1">
-        <v>116</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
+      <c r="G19" s="1">
+        <v>66</v>
       </c>
       <c r="H19" s="1">
+        <v>116</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1">
         <v>40.97</v>
       </c>
-      <c r="I19" s="1">
+      <c r="K19" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1">
         <v>0.34</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1138,34 +1258,40 @@
         <v>1960</v>
       </c>
       <c r="D20" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F20" s="1">
         <v>1.85</v>
       </c>
-      <c r="E20" s="1">
-        <v>66</v>
-      </c>
-      <c r="F20" s="1">
-        <v>116</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
+      <c r="G20" s="1">
+        <v>66</v>
       </c>
       <c r="H20" s="1">
+        <v>116</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1">
         <v>37.04</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>0.3</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1176,34 +1302,40 @@
         <v>1960</v>
       </c>
       <c r="D21" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
         <v>1.95</v>
       </c>
-      <c r="E21" s="1">
-        <v>66</v>
-      </c>
-      <c r="F21" s="1">
-        <v>116</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
+      <c r="G21" s="1">
+        <v>66</v>
       </c>
       <c r="H21" s="1">
+        <v>116</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
         <v>33.020000000000003</v>
       </c>
-      <c r="I21" s="1">
+      <c r="K21" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1">
         <v>0.31</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1214,34 +1346,40 @@
         <v>1960</v>
       </c>
       <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="F22" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E22" s="1">
-        <v>66</v>
-      </c>
-      <c r="F22" s="1">
-        <v>116</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>8</v>
+      <c r="G22" s="1">
+        <v>66</v>
       </c>
       <c r="H22" s="1">
+        <v>116</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1">
         <v>27.65</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K22" s="1">
         <v>0.52</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1">
         <v>0.25</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,34 +1390,40 @@
         <v>1960</v>
       </c>
       <c r="D23" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F23" s="1">
         <v>2.15</v>
       </c>
-      <c r="E23" s="1">
-        <v>66</v>
-      </c>
-      <c r="F23" s="1">
-        <v>116</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>8</v>
+      <c r="G23" s="1">
+        <v>66</v>
       </c>
       <c r="H23" s="1">
+        <v>116</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1">
         <v>21.84</v>
       </c>
-      <c r="I23" s="1">
+      <c r="K23" s="1">
         <v>0.49</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>0.23</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1290,34 +1434,40 @@
         <v>1960</v>
       </c>
       <c r="D24" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F24" s="1">
         <v>2.25</v>
       </c>
-      <c r="E24" s="1">
-        <v>66</v>
-      </c>
-      <c r="F24" s="1">
-        <v>116</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>8</v>
+      <c r="G24" s="1">
+        <v>66</v>
       </c>
       <c r="H24" s="1">
+        <v>116</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1">
         <v>18.350000000000001</v>
       </c>
-      <c r="I24" s="1">
+      <c r="K24" s="1">
         <v>0.5</v>
       </c>
-      <c r="J24" s="1">
+      <c r="L24" s="1">
         <v>0.2</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -1328,34 +1478,40 @@
         <v>1960</v>
       </c>
       <c r="D25" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F25" s="1">
         <v>2.35</v>
       </c>
-      <c r="E25" s="1">
-        <v>66</v>
-      </c>
-      <c r="F25" s="1">
-        <v>116</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>8</v>
+      <c r="G25" s="1">
+        <v>66</v>
       </c>
       <c r="H25" s="1">
+        <v>116</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1">
         <v>14.13</v>
       </c>
-      <c r="I25" s="1">
+      <c r="K25" s="1">
         <v>0.49</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>0.17</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1366,34 +1522,40 @@
         <v>1960</v>
       </c>
       <c r="D26" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E26" s="1">
-        <v>66</v>
-      </c>
-      <c r="F26" s="1">
-        <v>116</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>8</v>
+      <c r="G26" s="1">
+        <v>66</v>
       </c>
       <c r="H26" s="1">
+        <v>116</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I26" s="1">
+      <c r="K26" s="1">
         <v>0.45</v>
       </c>
-      <c r="J26" s="1">
+      <c r="L26" s="1">
         <v>0.1</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1404,34 +1566,40 @@
         <v>1960</v>
       </c>
       <c r="D27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F27" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E27" s="1">
-        <v>66</v>
-      </c>
-      <c r="F27" s="1">
-        <v>116</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
+      <c r="G27" s="1">
+        <v>66</v>
       </c>
       <c r="H27" s="1">
+        <v>116</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1">
         <v>5.68</v>
       </c>
-      <c r="I27" s="1">
+      <c r="K27" s="1">
         <v>0.44</v>
       </c>
-      <c r="J27" s="1">
+      <c r="L27" s="1">
         <v>0.09</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,34 +1610,40 @@
         <v>1960</v>
       </c>
       <c r="D28" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F28" s="1">
         <v>2.65</v>
       </c>
-      <c r="E28" s="1">
-        <v>66</v>
-      </c>
-      <c r="F28" s="1">
-        <v>116</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>8</v>
+      <c r="G28" s="1">
+        <v>66</v>
       </c>
       <c r="H28" s="1">
+        <v>116</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
         <v>2.93</v>
       </c>
-      <c r="I28" s="1">
+      <c r="K28" s="1">
         <v>0.41</v>
       </c>
-      <c r="J28" s="1">
+      <c r="L28" s="1">
         <v>0.15</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -1480,30 +1654,36 @@
         <v>1960</v>
       </c>
       <c r="D29" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F29" s="1">
         <v>2.8</v>
       </c>
-      <c r="E29" s="1">
-        <v>66</v>
-      </c>
-      <c r="F29" s="1">
-        <v>116</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>8</v>
+      <c r="G29" s="1">
+        <v>66</v>
       </c>
       <c r="H29" s="1">
+        <v>116</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1">
         <v>0.87</v>
       </c>
-      <c r="I29" s="1">
+      <c r="K29" s="1">
         <v>0.22</v>
       </c>
-      <c r="J29" s="1">
+      <c r="L29" s="1">
         <v>0.11</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="1">
         <v>256.60000000000002</v>
       </c>
     </row>

--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -29,9 +29,6 @@
     <t>cms</t>
   </si>
   <si>
-    <t>eta</t>
-  </si>
-  <si>
     <t>boson</t>
   </si>
   <si>
@@ -68,16 +65,19 @@
     <t>normalization</t>
   </si>
   <si>
-    <t>Z_rap</t>
-  </si>
-  <si>
     <t>CDF(Z)</t>
   </si>
   <si>
-    <t>eta_min</t>
-  </si>
-  <si>
-    <t>eta_max</t>
+    <t>Y_min</t>
+  </si>
+  <si>
+    <t>Y_max</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z_xsec_norm</t>
   </si>
 </sst>
 </file>
@@ -401,66 +401,67 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="12" width="10.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="1025" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -481,7 +482,7 @@
         <v>116</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1">
         <v>69.459999999999994</v>
@@ -493,7 +494,7 @@
         <v>0.49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1">
         <v>256.60000000000002</v>
@@ -501,10 +502,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -525,7 +526,7 @@
         <v>116</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1">
         <v>71.03</v>
@@ -537,7 +538,7 @@
         <v>0.49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1">
         <v>256.60000000000002</v>
@@ -545,10 +546,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -569,7 +570,7 @@
         <v>116</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1">
         <v>71.099999999999994</v>
@@ -581,7 +582,7 @@
         <v>0.49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N4" s="1">
         <v>256.60000000000002</v>
@@ -589,10 +590,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -613,7 +614,7 @@
         <v>116</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1">
         <v>70.010000000000005</v>
@@ -625,7 +626,7 @@
         <v>0.48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N5" s="1">
         <v>256.60000000000002</v>
@@ -633,10 +634,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -657,7 +658,7 @@
         <v>116</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1">
         <v>67.97</v>
@@ -669,7 +670,7 @@
         <v>0.47</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N6" s="1">
         <v>256.60000000000002</v>
@@ -677,10 +678,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -701,7 +702,7 @@
         <v>116</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1">
         <v>68.22</v>
@@ -713,7 +714,7 @@
         <v>0.47</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N7" s="1">
         <v>256.60000000000002</v>
@@ -721,10 +722,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -745,7 +746,7 @@
         <v>116</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1">
         <v>66.58</v>
@@ -757,7 +758,7 @@
         <v>0.47</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N8" s="1">
         <v>256.60000000000002</v>
@@ -765,10 +766,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -789,7 +790,7 @@
         <v>116</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1">
         <v>66.81</v>
@@ -801,7 +802,7 @@
         <v>0.48</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N9" s="1">
         <v>256.60000000000002</v>
@@ -809,10 +810,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -833,7 +834,7 @@
         <v>116</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1">
         <v>65.05</v>
@@ -845,7 +846,7 @@
         <v>0.49</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N10" s="1">
         <v>256.60000000000002</v>
@@ -853,10 +854,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>
@@ -877,7 +878,7 @@
         <v>116</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1">
         <v>64.7</v>
@@ -889,7 +890,7 @@
         <v>0.5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N11" s="1">
         <v>256.60000000000002</v>
@@ -897,10 +898,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>1960</v>
@@ -921,7 +922,7 @@
         <v>116</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1">
         <v>62.74</v>
@@ -933,7 +934,7 @@
         <v>0.5</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N12" s="1">
         <v>256.60000000000002</v>
@@ -941,10 +942,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>1960</v>
@@ -965,7 +966,7 @@
         <v>116</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1">
         <v>62.02</v>
@@ -977,7 +978,7 @@
         <v>0.49</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N13" s="1">
         <v>256.60000000000002</v>
@@ -985,10 +986,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>1960</v>
@@ -1009,7 +1010,7 @@
         <v>116</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1">
         <v>58.8</v>
@@ -1021,7 +1022,7 @@
         <v>0.48</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N14" s="1">
         <v>256.60000000000002</v>
@@ -1029,10 +1030,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>1960</v>
@@ -1053,7 +1054,7 @@
         <v>116</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1">
         <v>56.02</v>
@@ -1065,7 +1066,7 @@
         <v>0.43</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N15" s="1">
         <v>256.60000000000002</v>
@@ -1073,10 +1074,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>1960</v>
@@ -1097,7 +1098,7 @@
         <v>116</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1">
         <v>53.37</v>
@@ -1109,7 +1110,7 @@
         <v>0.4</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N16" s="1">
         <v>256.60000000000002</v>
@@ -1117,10 +1118,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>1960</v>
@@ -1141,7 +1142,7 @@
         <v>116</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1">
         <v>50.07</v>
@@ -1153,7 +1154,7 @@
         <v>0.37</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N17" s="1">
         <v>256.60000000000002</v>
@@ -1161,10 +1162,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>1960</v>
@@ -1185,7 +1186,7 @@
         <v>116</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1">
         <v>46.59</v>
@@ -1197,7 +1198,7 @@
         <v>0.35</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N18" s="1">
         <v>256.60000000000002</v>
@@ -1205,10 +1206,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>1960</v>
@@ -1229,7 +1230,7 @@
         <v>116</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1">
         <v>40.97</v>
@@ -1241,7 +1242,7 @@
         <v>0.34</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N19" s="1">
         <v>256.60000000000002</v>
@@ -1249,10 +1250,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>1960</v>
@@ -1273,7 +1274,7 @@
         <v>116</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1">
         <v>37.04</v>
@@ -1285,7 +1286,7 @@
         <v>0.3</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N20" s="1">
         <v>256.60000000000002</v>
@@ -1293,10 +1294,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>1960</v>
@@ -1317,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1">
         <v>33.020000000000003</v>
@@ -1329,7 +1330,7 @@
         <v>0.31</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N21" s="1">
         <v>256.60000000000002</v>
@@ -1337,10 +1338,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1">
         <v>1960</v>
@@ -1361,7 +1362,7 @@
         <v>116</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1">
         <v>27.65</v>
@@ -1373,7 +1374,7 @@
         <v>0.25</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N22" s="1">
         <v>256.60000000000002</v>
@@ -1381,10 +1382,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1">
         <v>1960</v>
@@ -1405,7 +1406,7 @@
         <v>116</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1">
         <v>21.84</v>
@@ -1417,7 +1418,7 @@
         <v>0.23</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N23" s="1">
         <v>256.60000000000002</v>
@@ -1425,10 +1426,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
         <v>1960</v>
@@ -1449,7 +1450,7 @@
         <v>116</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1">
         <v>18.350000000000001</v>
@@ -1461,7 +1462,7 @@
         <v>0.2</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N24" s="1">
         <v>256.60000000000002</v>
@@ -1469,10 +1470,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1">
         <v>1960</v>
@@ -1493,7 +1494,7 @@
         <v>116</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1">
         <v>14.13</v>
@@ -1505,7 +1506,7 @@
         <v>0.17</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N25" s="1">
         <v>256.60000000000002</v>
@@ -1513,10 +1514,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1">
         <v>1960</v>
@@ -1537,7 +1538,7 @@
         <v>116</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1">
         <v>8.8000000000000007</v>
@@ -1549,7 +1550,7 @@
         <v>0.1</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N26" s="1">
         <v>256.60000000000002</v>
@@ -1557,10 +1558,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
         <v>1960</v>
@@ -1581,7 +1582,7 @@
         <v>116</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1">
         <v>5.68</v>
@@ -1593,7 +1594,7 @@
         <v>0.09</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N27" s="1">
         <v>256.60000000000002</v>
@@ -1601,10 +1602,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
         <v>1960</v>
@@ -1625,7 +1626,7 @@
         <v>116</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1">
         <v>2.93</v>
@@ -1637,7 +1638,7 @@
         <v>0.15</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N28" s="1">
         <v>256.60000000000002</v>
@@ -1645,10 +1646,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
         <v>1960</v>
@@ -1669,7 +1670,7 @@
         <v>116</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1">
         <v>0.87</v>
@@ -1681,7 +1682,7 @@
         <v>0.11</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N29" s="1">
         <v>256.60000000000002</v>

--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\zrap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B08C8784-DA31-F04D-9E82-7CA539AD3870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="19">
   <si>
     <t>cms</t>
   </si>
@@ -79,11 +89,14 @@
   <si>
     <t>Z_xsec_norm</t>
   </si>
+  <si>
+    <t>syst_c</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -397,22 +410,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="12" width="10.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="1025" max="1027" width="10.5" customWidth="1"/>
+    <col min="3" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="1026" max="1028" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -450,13 +463,16 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -493,14 +509,18 @@
       <c r="L2" s="1">
         <v>0.49</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <f>0.06*J2</f>
+        <v>4.1675999999999993</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -537,14 +557,18 @@
       <c r="L3" s="1">
         <v>0.49</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M29" si="0">0.06*J3</f>
+        <v>4.2618</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -581,14 +605,18 @@
       <c r="L4" s="1">
         <v>0.49</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2659999999999991</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -625,14 +653,18 @@
       <c r="L5" s="1">
         <v>0.48</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2006000000000006</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -669,14 +701,18 @@
       <c r="L6" s="1">
         <v>0.47</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0781999999999998</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -713,14 +749,18 @@
       <c r="L7" s="1">
         <v>0.47</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0931999999999995</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -757,14 +797,18 @@
       <c r="L8" s="1">
         <v>0.47</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9947999999999997</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -801,14 +845,18 @@
       <c r="L9" s="1">
         <v>0.48</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0086000000000004</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -845,14 +893,18 @@
       <c r="L10" s="1">
         <v>0.49</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9029999999999996</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -889,14 +941,18 @@
       <c r="L11" s="1">
         <v>0.5</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -933,14 +989,18 @@
       <c r="L12" s="1">
         <v>0.5</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7644000000000002</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,14 +1037,18 @@
       <c r="L13" s="1">
         <v>0.49</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7212000000000001</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,14 +1085,18 @@
       <c r="L14" s="1">
         <v>0.48</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5279999999999996</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,14 +1133,18 @@
       <c r="L15" s="1">
         <v>0.43</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3612000000000002</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -1109,14 +1181,18 @@
       <c r="L16" s="1">
         <v>0.4</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2021999999999999</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,14 +1229,18 @@
       <c r="L17" s="1">
         <v>0.37</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0042</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1197,14 +1277,18 @@
       <c r="L18" s="1">
         <v>0.35</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7953999999999999</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1241,14 +1325,18 @@
       <c r="L19" s="1">
         <v>0.34</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4581999999999997</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1285,14 +1373,18 @@
       <c r="L20" s="1">
         <v>0.3</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2223999999999999</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1329,14 +1421,18 @@
       <c r="L21" s="1">
         <v>0.31</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9812000000000001</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1373,14 +1469,18 @@
       <c r="L22" s="1">
         <v>0.25</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6589999999999998</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1417,14 +1517,18 @@
       <c r="L23" s="1">
         <v>0.23</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3104</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1461,14 +1565,18 @@
       <c r="L24" s="1">
         <v>0.2</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.101</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1505,14 +1613,18 @@
       <c r="L25" s="1">
         <v>0.17</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8478</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,14 +1661,18 @@
       <c r="L26" s="1">
         <v>0.1</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1593,14 +1709,18 @@
       <c r="L27" s="1">
         <v>0.09</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1637,14 +1757,18 @@
       <c r="L28" s="1">
         <v>0.15</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="1">
+        <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1681,10 +1805,14 @@
       <c r="L29" s="1">
         <v>0.11</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="M29" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2199999999999996E-2</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="1">
         <v>256.60000000000002</v>
       </c>
     </row>

--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B08C8784-DA31-F04D-9E82-7CA539AD3870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96955CEE-8556-F948-ACC1-0A80918CE853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>m_min</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>syst_c</t>
+  </si>
+  <si>
+    <t>norm</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,19 +436,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -460,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>18</v>
@@ -469,12 +469,12 @@
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -514,7 +514,7 @@
         <v>4.1675999999999993</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" s="1">
         <v>256.60000000000002</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -562,7 +562,7 @@
         <v>4.2618</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" s="1">
         <v>256.60000000000002</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -610,7 +610,7 @@
         <v>4.2659999999999991</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O4" s="1">
         <v>256.60000000000002</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -658,7 +658,7 @@
         <v>4.2006000000000006</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5" s="1">
         <v>256.60000000000002</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -706,7 +706,7 @@
         <v>4.0781999999999998</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O6" s="1">
         <v>256.60000000000002</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -754,7 +754,7 @@
         <v>4.0931999999999995</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O7" s="1">
         <v>256.60000000000002</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -802,7 +802,7 @@
         <v>3.9947999999999997</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O8" s="1">
         <v>256.60000000000002</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -850,7 +850,7 @@
         <v>4.0086000000000004</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O9" s="1">
         <v>256.60000000000002</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -898,7 +898,7 @@
         <v>3.9029999999999996</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O10" s="1">
         <v>256.60000000000002</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -946,7 +946,7 @@
         <v>3.8820000000000001</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O11" s="1">
         <v>256.60000000000002</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -994,7 +994,7 @@
         <v>3.7644000000000002</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O12" s="1">
         <v>256.60000000000002</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1042,7 +1042,7 @@
         <v>3.7212000000000001</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O13" s="1">
         <v>256.60000000000002</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1090,7 +1090,7 @@
         <v>3.5279999999999996</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O14" s="1">
         <v>256.60000000000002</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1138,7 +1138,7 @@
         <v>3.3612000000000002</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O15" s="1">
         <v>256.60000000000002</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -1186,7 +1186,7 @@
         <v>3.2021999999999999</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O16" s="1">
         <v>256.60000000000002</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -1234,7 +1234,7 @@
         <v>3.0042</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O17" s="1">
         <v>256.60000000000002</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1282,7 +1282,7 @@
         <v>2.7953999999999999</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O18" s="1">
         <v>256.60000000000002</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -1330,7 +1330,7 @@
         <v>2.4581999999999997</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O19" s="1">
         <v>256.60000000000002</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -1378,7 +1378,7 @@
         <v>2.2223999999999999</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O20" s="1">
         <v>256.60000000000002</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -1426,7 +1426,7 @@
         <v>1.9812000000000001</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O21" s="1">
         <v>256.60000000000002</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -1474,7 +1474,7 @@
         <v>1.6589999999999998</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O22" s="1">
         <v>256.60000000000002</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -1522,7 +1522,7 @@
         <v>1.3104</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O23" s="1">
         <v>256.60000000000002</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -1570,7 +1570,7 @@
         <v>1.101</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O24" s="1">
         <v>256.60000000000002</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -1618,7 +1618,7 @@
         <v>0.8478</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O25" s="1">
         <v>256.60000000000002</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -1666,7 +1666,7 @@
         <v>0.52800000000000002</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O26" s="1">
         <v>256.60000000000002</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -1714,7 +1714,7 @@
         <v>0.34079999999999999</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O27" s="1">
         <v>256.60000000000002</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -1762,7 +1762,7 @@
         <v>0.17580000000000001</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O28" s="1">
         <v>256.60000000000002</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
@@ -1810,7 +1810,7 @@
         <v>5.2199999999999996E-2</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O29" s="1">
         <v>256.60000000000002</v>

--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/zrap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870BE3F5-8B4B-2942-B12C-E1A0DE545C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83983A10-98CB-E948-B575-50C376BC0B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
   <si>
     <t>cms</t>
   </si>
@@ -69,9 +69,6 @@
     <t>m_max</t>
   </si>
   <si>
-    <t>normalization</t>
-  </si>
-  <si>
     <t>CDF(Z)</t>
   </si>
   <si>
@@ -84,13 +81,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Z_xsec_norm</t>
-  </si>
-  <si>
     <t>syst_c</t>
   </si>
   <si>
     <t>norm_c</t>
+  </si>
+  <si>
+    <t>Z_xsec</t>
   </si>
 </sst>
 </file>
@@ -411,21 +408,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="13" width="10.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="1026" max="1028" width="10.5" customWidth="1"/>
+    <col min="1025" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -436,13 +432,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -460,21 +456,18 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -514,15 +507,12 @@
         <v>4.1675999999999993</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -562,15 +552,12 @@
         <v>4.2618</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -610,15 +597,12 @@
         <v>4.2659999999999991</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -658,15 +642,12 @@
         <v>4.2006000000000006</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -706,15 +687,12 @@
         <v>4.0781999999999998</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -754,15 +732,12 @@
         <v>4.0931999999999995</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -802,15 +777,12 @@
         <v>3.9947999999999997</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -850,15 +822,12 @@
         <v>4.0086000000000004</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -898,15 +867,12 @@
         <v>3.9029999999999996</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -946,15 +912,12 @@
         <v>3.8820000000000001</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -994,15 +957,12 @@
         <v>3.7644000000000002</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1042,15 +1002,12 @@
         <v>3.7212000000000001</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1090,15 +1047,12 @@
         <v>3.5279999999999996</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1138,15 +1092,12 @@
         <v>3.3612000000000002</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -1186,15 +1137,12 @@
         <v>3.2021999999999999</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -1234,15 +1182,12 @@
         <v>3.0042</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1282,15 +1227,12 @@
         <v>2.7953999999999999</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -1330,15 +1272,12 @@
         <v>2.4581999999999997</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -1378,15 +1317,12 @@
         <v>2.2223999999999999</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -1426,15 +1362,12 @@
         <v>1.9812000000000001</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -1474,15 +1407,12 @@
         <v>1.6589999999999998</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -1522,15 +1452,12 @@
         <v>1.3104</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -1570,15 +1497,12 @@
         <v>1.101</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -1618,15 +1542,12 @@
         <v>0.8478</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -1666,15 +1587,12 @@
         <v>0.52800000000000002</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -1714,15 +1632,12 @@
         <v>0.34079999999999999</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O27" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -1762,15 +1677,12 @@
         <v>0.17580000000000001</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="1">
-        <v>256.60000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
@@ -1810,10 +1722,7 @@
         <v>5.2199999999999996E-2</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29" s="1">
-        <v>256.60000000000002</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/zrap/expdata/1000.xlsx
+++ b/zrap/expdata/1000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/zrap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83983A10-98CB-E948-B575-50C376BC0B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC9C860-7F18-9843-B2CF-B1433EF02AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="20">
   <si>
     <t>cms</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Z_xsec</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>pb</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,7 +427,7 @@
     <col min="1025" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,8 +470,11 @@
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -509,8 +518,11 @@
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -554,8 +566,11 @@
       <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -599,8 +614,11 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -644,8 +662,11 @@
       <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -689,8 +710,11 @@
       <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -734,8 +758,11 @@
       <c r="N7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -779,8 +806,11 @@
       <c r="N8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -824,8 +854,11 @@
       <c r="N9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -869,8 +902,11 @@
       <c r="N10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -914,8 +950,11 @@
       <c r="N11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -959,8 +998,11 @@
       <c r="N12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1046,11 @@
       <c r="N13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1049,8 +1094,11 @@
       <c r="N14" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1094,8 +1142,11 @@
       <c r="N15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,8 +1190,11 @@
       <c r="N16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1238,11 @@
       <c r="N17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,8 +1286,11 @@
       <c r="N18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1274,8 +1334,11 @@
       <c r="N19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1319,8 +1382,11 @@
       <c r="N20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,8 +1430,11 @@
       <c r="N21" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1409,8 +1478,11 @@
       <c r="N22" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -1454,8 +1526,11 @@
       <c r="N23" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -1499,8 +1574,11 @@
       <c r="N24" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1544,8 +1622,11 @@
       <c r="N25" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1589,8 +1670,11 @@
       <c r="N26" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1634,8 +1718,11 @@
       <c r="N27" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1679,8 +1766,11 @@
       <c r="N28" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1723,6 +1813,9 @@
       </c>
       <c r="N29" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
